--- a/results.xlsx
+++ b/results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,223 +450,7999 @@
         <v>-2.361881818022523</v>
       </c>
       <c r="B2" t="n">
-        <v>0.00019771533588585</v>
+        <v>3.400646617882381e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-1.840220501735247</v>
+        <v>-2.347275301166479</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0004774781397669757</v>
+        <v>3.492511910553199e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-1.318559185447971</v>
+        <v>-2.332668784310436</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001078453596443489</v>
+        <v>3.586669643126271e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.7968978691606945</v>
+        <v>-2.318062267454392</v>
       </c>
       <c r="B5" t="n">
-        <v>0.002278164698095404</v>
+        <v>3.683171551535468e-06</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.2752365528734182</v>
+        <v>-2.303455750598348</v>
       </c>
       <c r="B6" t="n">
-        <v>0.004500960953869661</v>
+        <v>3.782070389133431e-06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.2464247634138581</v>
+        <v>-2.288849233742304</v>
       </c>
       <c r="B7" t="n">
-        <v>0.008316920853469424</v>
+        <v>3.883419942789435e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.768086079701134</v>
+        <v>-2.274242716886261</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01437334148301379</v>
+        <v>3.987275049134186e-06</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.28974739598841</v>
+        <v>-2.259636200030217</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0232322546329043</v>
+        <v>4.093691610970062e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.811408712275687</v>
+        <v>-2.245029683174173</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0351207623113095</v>
+        <v>4.202726613826587e-06</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.333070028562963</v>
+        <v>-2.23042316631813</v>
       </c>
       <c r="B11" t="n">
-        <v>0.04965647848365545</v>
+        <v>4.314438142676165e-06</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2.854731344850239</v>
+        <v>-2.215816649462086</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06566405323278013</v>
+        <v>4.42888539879541e-06</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3.376392661137515</v>
+        <v>-2.201210132606042</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08121187708183125</v>
+        <v>4.546128716779904e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3.898053977424791</v>
+        <v>-2.186603615749998</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09394025522799931</v>
+        <v>4.666229581711049e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4.419715293712067</v>
+        <v>-2.171997098893955</v>
       </c>
       <c r="B15" t="n">
-        <v>0.101630581018031</v>
+        <v>4.789250646461808e-06</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.941376609999343</v>
+        <v>-2.157390582037911</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1028342187886491</v>
+        <v>4.915255749157261e-06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.46303792628662</v>
+        <v>-2.142784065181867</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09731762082418871</v>
+        <v>5.044309930772264e-06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.984699242573896</v>
+        <v>-2.128177548325823</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0861362255190905</v>
+        <v>5.176479452877891e-06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>6.506360558861171</v>
+        <v>-2.11357103146978</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07130509803624774</v>
+        <v>5.311831815519761e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7.028021875148449</v>
+        <v>-2.098964514613736</v>
       </c>
       <c r="B20" t="n">
-        <v>0.0552071729166379</v>
+        <v>5.450435775238672e-06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7.549683191435724</v>
+        <v>-2.084357997757692</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03997701259803099</v>
+        <v>5.59236136323603e-06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8.071344507723001</v>
+        <v>-2.069751480901648</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02707476623559013</v>
+        <v>5.737679903651191e-06</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>8.593005824010277</v>
+        <v>-2.055144964045605</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01714976683051217</v>
+        <v>5.88646403199339e-06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>9.114667140297554</v>
+        <v>-2.040538447189561</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01015992155504064</v>
+        <v>6.038787713689373e-06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9.636328456584829</v>
+        <v>-2.025931930333517</v>
       </c>
       <c r="B25" t="n">
-        <v>0.005629379880006335</v>
+        <v>6.194726262757699e-06</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10.1579897728721</v>
+        <v>-2.011325413477473</v>
       </c>
       <c r="B26" t="n">
-        <v>0.002917213351758763</v>
+        <v>6.354356360614466e-06</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>10.67965108915938</v>
+        <v>-1.99671889662143</v>
       </c>
       <c r="B27" t="n">
-        <v>0.001413880039402793</v>
+        <v>6.517756074986248e-06</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11.20131240544666</v>
+        <v>-1.982112379765386</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0006409038840554659</v>
+        <v>6.685004878960552e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11.72297372173393</v>
+        <v>-1.967505862909342</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0002717117277427628</v>
+        <v>6.856183670127735e-06</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-1.952899346053298</v>
+      </c>
+      <c r="B30" t="n">
+        <v>7.031374789851234e-06</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-1.938292829197255</v>
+      </c>
+      <c r="B31" t="n">
+        <v>7.210662042642666e-06</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-1.923686312341211</v>
+      </c>
+      <c r="B32" t="n">
+        <v>7.394130715634095e-06</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-1.909079795485167</v>
+      </c>
+      <c r="B33" t="n">
+        <v>7.581867598161602e-06</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-1.894473278629123</v>
+      </c>
+      <c r="B34" t="n">
+        <v>7.773961001438781e-06</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-1.87986676177308</v>
+      </c>
+      <c r="B35" t="n">
+        <v>7.970500778331231e-06</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-1.865260244917036</v>
+      </c>
+      <c r="B36" t="n">
+        <v>8.171578343207377e-06</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-1.850653728060992</v>
+      </c>
+      <c r="B37" t="n">
+        <v>8.377286691894404e-06</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-1.836047211204948</v>
+      </c>
+      <c r="B38" t="n">
+        <v>8.58772042169496e-06</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-1.821440694348905</v>
+      </c>
+      <c r="B39" t="n">
+        <v>8.802975751500514e-06</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-1.806834177492861</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9.023150541956923e-06</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-1.792227660636817</v>
+      </c>
+      <c r="B41" t="n">
+        <v>9.248344315714995e-06</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-1.777621143780774</v>
+      </c>
+      <c r="B42" t="n">
+        <v>9.478658277738844e-06</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-1.76301462692473</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9.714195335662544e-06</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>-1.748408110068686</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9.955060120218071e-06</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>-1.733801593212642</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1.020135900569241e-05</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>-1.719195076356599</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.045320013043946e-05</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>-1.704588559500555</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.071069341743468e-05</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>-1.689982042644511</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.097395059482291e-05</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>-1.675375525788467</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1.124308521656013e-05</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>-1.660769008932424</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1.151821268300025e-05</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>-1.64616249207638</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.179945026154685e-05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>-1.631555975220336</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.208691710729567e-05</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>-1.616949458364292</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.23807342836644e-05</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>-1.602342941508249</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.268102478304498e-05</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>-1.587736424652205</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.298791354741101e-05</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>-1.573129907796161</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.330152748893834e-05</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>-1.558523390940118</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.362199551056484e-05</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>-1.543916874084074</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.394944852654541e-05</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>-1.52931035722803</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.428401948295088e-05</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>-1.514703840371986</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.462584337811885e-05</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>-1.500097323515943</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.497505728305501e-05</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>-1.485490806659899</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.53318003617447e-05</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>-1.470884289803855</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.569621389145223e-05</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>-1.456277772947812</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.606844128285081e-05</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>-1.441671256091768</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.64486281001503e-05</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>-1.427064739235724</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1.683692208105973e-05</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>-1.41245822237968</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.723347315669315e-05</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>-1.397851705523637</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.763843347133223e-05</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>-1.383245188667593</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1.805195740204842e-05</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>-1.368638671811549</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1.847420157826557e-05</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>-1.354032154955505</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.890532490106585e-05</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>-1.339425638099462</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.934548856245063e-05</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>-1.324819121243418</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1.979485606437689e-05</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>-1.310212604387374</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2.025359323763298e-05</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>-1.29560608753133</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2.072186826054551e-05</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>-1.280999570675287</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2.119985167748132e-05</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>-1.266393053819243</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2.168771641715189e-05</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>-1.251786536963199</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2.218563781070527e-05</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>-1.237180020107155</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2.269379360957861e-05</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>-1.222573503251112</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.321236400314576e-05</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>-1.207966986395068</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2.374153163609374e-05</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>-1.193360469539024</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2.428148162554318e-05</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>-1.17875395268298</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2.483240157791959e-05</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>-1.164147435826937</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2.53944816055215e-05</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>-1.149540918970893</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2.596791434280612e-05</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>-1.134934402114849</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2.655289496238957e-05</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>-1.120327885258805</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2.71496211906759e-05</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>-1.105721368402762</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2.775829332324386e-05</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>-1.091114851546718</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2.837911423981556e-05</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>-1.076508334690674</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2.901228941888916e-05</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>-1.061901817834631</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2.96580269520761e-05</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>-1.047295300978587</v>
+      </c>
+      <c r="B92" t="n">
+        <v>3.031653755793877e-05</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>-1.032688784122543</v>
+      </c>
+      <c r="B93" t="n">
+        <v>3.098803459554563e-05</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>-1.018082267266499</v>
+      </c>
+      <c r="B94" t="n">
+        <v>3.16727340775758e-05</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>-1.003475750410456</v>
+      </c>
+      <c r="B95" t="n">
+        <v>3.237085468297835e-05</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>-0.988869233554412</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.308261776929691e-05</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>-0.9742627166983682</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.380824738440005e-05</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>-0.9596561998423245</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.454797027794046e-05</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>-0.9450496829862807</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3.530201591216533e-05</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>-0.930443166130237</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.607061647235821e-05</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>-0.9158366492741932</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3.685400687675178e-05</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>-0.9012301324181495</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3.765242478589461e-05</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>-0.8866236155621059</v>
+      </c>
+      <c r="B103" t="n">
+        <v>3.846611061154403e-05</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>-0.872017098706062</v>
+      </c>
+      <c r="B104" t="n">
+        <v>3.929530752496812e-05</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>-0.8574105818500184</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4.014026146475515e-05</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>-0.8428040649939745</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4.100122114394922e-05</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>-0.8281975481379309</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4.187843805674601e-05</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>-0.813591031281887</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.277216648443426e-05</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>-0.7989845144258434</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4.36826635008469e-05</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>-0.7843779975697998</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4.461018897713022e-05</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>-0.7697714807137559</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4.555500558581834e-05</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>-0.7551649638577123</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4.651737880442298e-05</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>-0.7405584470016684</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4.749757691806375e-05</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>-0.7259519301456248</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4.849587102174731e-05</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>-0.7113454132895809</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4.951253502162838e-05</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>-0.6967388964335373</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5.054784563578597e-05</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>-0.6821323795774936</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5.160208239414358e-05</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>-0.6675258627214498</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5.267552763761445e-05</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>-0.6529193458654061</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5.376846651664914e-05</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>-0.6383128290093623</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5.48811869887731e-05</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>-0.6237063121533186</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5.601397981548455e-05</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>-0.6090997952972748</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5.716713855831446e-05</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>-0.5944932784412311</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5.834095957399713e-05</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>-0.5798867615851875</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5.953574200889822e-05</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>-0.5652802447291436</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6.075178779244494e-05</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>-0.5506737278731</v>
+      </c>
+      <c r="B126" t="n">
+        <v>6.198940162984064e-05</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>-0.5360672110170561</v>
+      </c>
+      <c r="B127" t="n">
+        <v>6.324889099376977e-05</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>-0.5214606941610125</v>
+      </c>
+      <c r="B128" t="n">
+        <v>6.453056611522949e-05</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>-0.5068541773049686</v>
+      </c>
+      <c r="B129" t="n">
+        <v>6.583473997347515e-05</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>-0.492247660448925</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.716172828500136e-05</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>-0.4776411435928813</v>
+      </c>
+      <c r="B131" t="n">
+        <v>6.851184949154205e-05</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>-0.4630346267368375</v>
+      </c>
+      <c r="B132" t="n">
+        <v>6.988542474714978e-05</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>-0.4484281098807938</v>
+      </c>
+      <c r="B133" t="n">
+        <v>7.128277790430758e-05</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>-0.43382159302475</v>
+      </c>
+      <c r="B134" t="n">
+        <v>7.270423549892878e-05</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>-0.4192150761687063</v>
+      </c>
+      <c r="B135" t="n">
+        <v>7.415012673452894e-05</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>-0.4046085593126625</v>
+      </c>
+      <c r="B136" t="n">
+        <v>7.562078346515927e-05</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>-0.3900020424566188</v>
+      </c>
+      <c r="B137" t="n">
+        <v>7.7116540177476e-05</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>-0.3753955256005752</v>
+      </c>
+      <c r="B138" t="n">
+        <v>7.863773397167977e-05</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>-0.3607890087445313</v>
+      </c>
+      <c r="B139" t="n">
+        <v>8.018470454126654e-05</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>-0.3461824918884875</v>
+      </c>
+      <c r="B140" t="n">
+        <v>8.175779415199981e-05</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>-0.3315759750324441</v>
+      </c>
+      <c r="B141" t="n">
+        <v>8.335734761935436e-05</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>-0.3169694581764002</v>
+      </c>
+      <c r="B142" t="n">
+        <v>8.498371228524582e-05</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>-0.3023629413203563</v>
+      </c>
+      <c r="B143" t="n">
+        <v>8.663723799337639e-05</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>-0.2877564244643125</v>
+      </c>
+      <c r="B144" t="n">
+        <v>8.83182770634915e-05</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>-0.2731499076082691</v>
+      </c>
+      <c r="B145" t="n">
+        <v>9.002718426457442e-05</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>-0.2585433907522252</v>
+      </c>
+      <c r="B146" t="n">
+        <v>9.176431678664752e-05</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>-0.2439368738961813</v>
+      </c>
+      <c r="B147" t="n">
+        <v>9.353003421167568e-05</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>-0.2293303570401379</v>
+      </c>
+      <c r="B148" t="n">
+        <v>9.532469848303436e-05</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>-0.2147238401840941</v>
+      </c>
+      <c r="B149" t="n">
+        <v>9.714867387380401e-05</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>-0.2001173233280502</v>
+      </c>
+      <c r="B150" t="n">
+        <v>9.900232695396385e-05</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>-0.1855108064720064</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.0001008860265562126</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>-0.1709042896159629</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.0001028001437405508</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>-0.1562977727599191</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.0001047450517576414</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>-0.1416912559038752</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.0001067211260109037</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>-0.1270847390478318</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.0001087287440172105</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>-0.1124782221917879</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.0001107682853664213</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>-0.09787170533574407</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.0001128401316794593</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>-0.08326518847970021</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.0001149446665652306</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>-0.0686586716236568</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.0001170822755760101</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>-0.05405215476761294</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.0001192533461615852</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>-0.03944563791156908</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.0001214582676221749</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>-0.02483912105552566</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.0001236974310595855</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>-0.0102326041994818</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.000125971229327464</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.004373912656562062</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.0001282800569798277</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.01898042951260592</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.0001306243102182783</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.03358694636864934</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.0001330043868379947</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.0481934632246932</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.0001354206861718735</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.06279998008073706</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.0001378736090338027</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.07740649693678048</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.0001403635576600875</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.09201301379282434</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.0001428909356495298</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.1066195306488682</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.0001454561479022386</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.1212260475049121</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.0001480596005567535</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.1358325643609555</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.0001507017009258422</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.1504390812169993</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.0001533828574308022</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.1650455980730432</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.0001561034795343431</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.1796521149290866</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.0001588639776718519</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.1942586317851305</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.0001616647631813434</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.2088651486411743</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.0001645062482318431</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.2234716654972182</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.0001673888457503769</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.2380781823532616</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.0001703129693472333</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.2526846992093055</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.0001732790332399908</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.2672912160653493</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.0001762874521761028</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.2818977329213928</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.0001793386413535634</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.2965042497774366</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.000182433016340593</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.3111107666334805</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.0001855709929934977</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.3257172834895243</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.0001887529873731471</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.3403238003455678</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.0001919794156600776</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.3549303172016116</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.0001952506940676342</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.3695368340576555</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.0001985672387544539</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.3841433509136989</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.0002019294657345048</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.3987498677697427</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.0002053377907863772</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.4133563846257866</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.0002087926293607989</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.4279629014818305</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.0002122943964865814</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.4425694183378739</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.0002158435066753703</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.4571759351939177</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.0002194403738245958</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.4717824520499616</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.0002230854111193396</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.486388968906005</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.0002267790309324093</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.5009954857620489</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.0002305216447231334</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.5156020026180927</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.0002343136629347365</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.5302085194741366</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.0002381554948903131</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.54481503633018</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.0002420475486871673</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>0.5594215531862239</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.0002459902310899785</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>0.5740280700422677</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.0002499839474225905</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>0.5886345868983112</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.0002540291014580982</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>0.603241103754355</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.0002581260953080557</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>0.6178476206103989</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.0002622753293097767</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>0.6324541374664427</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.0002664772019127706</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>0.6470606543224862</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.0002707321095637202</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>0.66166717117853</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.0002750404465895924</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>0.6762736880345739</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.0002794026050806902</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>0.6908802048906173</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.0002838189747709097</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>0.7054867217466612</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.0002882899429179665</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>0.720093238602705</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.0002928158941817964</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>0.7346997554587489</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.0002973972105016487</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>0.7493062723147923</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.0003020342709724975</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>0.7639127891708362</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.000306727451719422</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>0.77851930602688</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.000311477125771939</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>0.7931258228829234</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.0003162836629360156</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>0.8077323397389673</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.000321147429665828</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>0.8223388565950112</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.0003260687889341841</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>0.836945373451055</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.0003310481001014484</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>0.8515518903070984</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.0003360857187841883</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>0.8661584071631423</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.0003411819967221244</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>0.8807649240191862</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.0003463372816445431</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>0.8953714408752296</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.0003515519171353176</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>0.9099779577312734</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.0003568262424975197</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>0.9245844745873173</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.0003621605926165394</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>0.9391909914433612</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.0003675552978229385</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>0.9537975082994046</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.0003730106837538071</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>0.9684040251554484</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.0003785270712137259</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>0.9830105420114923</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.0003841047760352392</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>0.9976170588675357</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.0003897441089374502</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>1.01222357572358</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.0003954453753852935</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>1.026830092579623</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.0004012088754470865</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>1.041436609435667</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.0004070349036520288</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>1.056043126291711</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.0004129237488467129</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>1.070649643147755</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.0004188756940513294</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>1.085256160003798</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.0004248910163150953</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>1.099862676859842</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.0004309699865715153</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>1.114469193715886</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.0004371128694927381</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>1.12907571057193</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.0004433199233439232</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>1.143682227427973</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.0004495913998369475</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>1.158288744284017</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.0004559275439838216</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>1.172895261140061</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.0004623285939500434</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>1.187501777996105</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.0004687947809071252</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>1.202108294852148</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.0004753263288857605</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>1.216714811708192</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.0004819234546279486</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>1.231321328564236</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.0004885863674396369</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>1.24592784542028</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.0004953152690428606</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>1.260534362276323</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.0005021103534283318</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>1.275140879132367</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.0005089718067072882</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>1.289747395988411</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.0005158998069643567</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>1.304353912844454</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.000522894524109703</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>1.318960429700498</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.0005299561197317365</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>1.333566946556542</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.0005370847469500367</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>1.348173463412586</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.0005442805502684292</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>1.362779980268629</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.0005515436654284014</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>1.377386497124673</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.0005588742192627477</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>1.391993013980717</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.0005662723295499217</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>1.40659953083676</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.0005737381048686666</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>1.421206047692804</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.0005812716444530616</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>1.435812564548848</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.0005888730380482696</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>1.450419081404892</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.0005965423657669777</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>1.465025598260935</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.0006042796979463874</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>1.479632115116979</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.0006120850950059112</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>1.494238631973023</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.0006199586073056887</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>1.508845148829066</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.0006279002750060117</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>1.52345166568511</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.0006359101279277135</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>1.538058182541154</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.0006439881854130997</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>1.552664699397198</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.0006521344561884815</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>1.567271216253241</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.0006603489382272024</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>1.581877733109285</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.0006686316186142044</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>1.596484249965329</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.0006769824734116289</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>1.611090766821373</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.0006854014675256731</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>1.625697283677416</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.0006938885545744317</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>1.64030380053346</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.0007024436767576817</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>1.654910317389504</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.0007110667647277566</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>1.669516834245548</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.0007197577374616765</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>1.684123351101592</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.0007285165021352139</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>1.698729867957635</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.000737342953998299</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>1.713336384813679</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.0007462369762521182</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>1.727942901669723</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.0007551984399279954</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>1.742549418525766</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.0007642272037679185</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>1.75715593538181</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.0007733231141068692</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>1.771762452237854</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.0007824860047573184</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>1.786368969093898</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.0007917156968953593</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>1.800975485949941</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.0008010119989488931</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>1.815582002805985</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.0008103747064879332</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>1.830188519662029</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.0008198036021169405</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>1.844795036518073</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.0008292984553698104</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>1.859401553374116</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.000838859022606088</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>1.87400807023016</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.0008484850469106936</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>1.888614587086204</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.0008581762579948984</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>1.903221103942247</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.0008679323721007756</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>1.917827620798291</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.0008777530919069701</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>1.932434137654335</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.0008876381064379449</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>1.947040654510379</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.0008975870909756559</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>1.961647171366423</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.0009075997069731279</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>1.976253688222466</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.0009176756019718957</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>1.99086020507851</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.0009278144095212215</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>2.005466721934553</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.000938015749100754</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>2.020073238790597</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.0009482792260453177</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>2.034679755646641</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.0009586044314740388</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>2.049286272502685</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.000968990942220721</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>2.063892789358729</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.0009794383207682583</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>2.078499306214773</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.0009899461151863798</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>2.093105823070816</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.001000513859071628</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>2.107712339926859</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.001011141071491375</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>2.122318856782903</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.00102182725693048</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>2.136925373638947</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.001032571905241711</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>2.151531890494991</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.001043374491599053</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>2.166138407351035</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.001054234476455265</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>2.180744924207079</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.001065151305501527</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>2.195351441063123</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.001076124409631896</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>2.209957957919165</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.001087153204910929</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>2.224564474775209</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.00109823709254403</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>2.239170991631253</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.001109375458852868</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>2.253777508487297</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.001120567675253648</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>2.268384025343341</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.001131813098238788</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>2.282990542199385</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.0011431110693636</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>2.297597059055429</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.001154460915235245</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>2.312203575911472</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.001165861947506841</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>2.326810092767515</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.001177313462874863</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>2.341416609623559</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.001188814743080191</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>2.356023126479603</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.001200365054914221</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>2.370629643335647</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.001211963650227743</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>2.385236160191691</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.001223609765944267</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>2.399842677047735</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.001235302624078061</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>2.414449193903778</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.001247041431756468</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>2.429055710759822</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.001258825381243112</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>2.443662227615865</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.001270653649971532</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>2.458268744471909</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.001282525400576384</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>2.472875261327953</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.001294439780933798</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>2.487481778183997</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.001306395924203396</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>2.502088295040041</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.001318392948875036</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>2.516694811896084</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.001330429958821155</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>2.531301328752128</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.001342506043351344</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>2.545907845608172</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.001354620277273177</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>2.560514362464215</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.001366771720956561</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>2.575120879320259</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.001378959420402615</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>2.589727396176303</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.001391182407316727</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>2.604333913032347</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.001403439699186437</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>2.61894042988839</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.001415730299364093</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>2.633546946744434</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.001428053197152779</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>2.648153463600478</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.001440407367897856</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>2.662759980456522</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.001452791773082773</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>2.677366497312565</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.001465205360429156</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>2.691973014168609</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.001477647064000942</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>2.706579531024653</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.001490115804314518</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>2.721186047880696</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.001502610488451739</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>2.73579256473674</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.001515130010178112</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>2.750399081592784</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.001527673250065975</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>2.765005598448828</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.001540239075621563</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>2.779612115304872</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.001552826341416791</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>2.794218632160915</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.001565433889225309</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>2.808825149016959</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.001578060548163618</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>2.823431665873002</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.001590705134836778</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>2.838038182729046</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.001603366453486688</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>2.85264469958509</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.001616043296148506</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>2.867251216441134</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.001628734442807256</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>2.881857733297178</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.0016414386615628</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>2.896464250153222</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.001654154708796041</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>2.911070767009265</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.001666881329342063</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>2.925677283865308</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.001679617256665877</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>2.940283800721352</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.001692361213043225</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>2.954890317577396</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.001705111909746093</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>2.96949683443344</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.001717868047232174</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>2.984103351289484</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.001730628315338156</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>2.998709868145528</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.001743391393478178</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>3.013316385001572</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.001756155950845995</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>3.027922901857615</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.001768920646621486</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>3.042529418713658</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.001781684130181205</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>3.057135935569702</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.001794445041313097</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>3.071742452425746</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.001807202010435438</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>3.08634896928179</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.001819953658820095</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>3.100955486137834</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.001832698598818849</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>3.115562002993878</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.001845435434094211</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>3.130168519849921</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.001858162759855675</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>3.144775036705965</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.001870879163096195</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>3.159381553562008</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0.001883583222836327</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>3.173988070418052</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.001896273510370527</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>3.188594587274096</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.001908948589515624</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>3.20320110413014</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.001921607016866445</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>3.217807620986184</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.00193424734205222</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>3.232414137842227</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.001946868107997157</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>3.247020654698271</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0.001959467851185337</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>3.261627171554315</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0.001972045101927999</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>3.276233688410358</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0.001984598384635716</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>3.290840205266402</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0.001997126218091339</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>3.305446722122446</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.002009627115729273</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>3.32005323897849</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.002022099585914983</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>3.334659755834533</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0.002034542132230643</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>3.349266272690577</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.002046953253760031</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>3.363872789546621</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.002059331445380619</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>3.378479306402665</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0.002071675198055178</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>3.393085823258708</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0.002083982999127987</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>3.407692340114752</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.002096253332622866</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>3.422298856970796</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.002108484679544997</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>3.436905373826839</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.002120675518184345</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>3.451511890682883</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.002132824324420746</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>3.466118407538927</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.002144929572034548</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>3.480724924394971</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0.002156989733015702</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>3.495331441251015</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0.002169003277878001</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>3.509937958107058</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0.002180968675973838</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>3.524544474963102</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0.002192884395812333</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>3.539150991819145</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.002204748905378029</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>3.553757508675189</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.002216560672451962</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>3.568364025531233</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.002228318164935905</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>3.582970542387277</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.00224001985117589</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>3.597577059243321</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.002251664200289549</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>3.612183576099365</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0.002263249682493307</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>3.626790092955408</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.002274774769432442</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>3.641396609811451</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0.002286237934511159</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>3.656003126667495</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0.002297637653224771</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>3.670609643523539</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0.002308972403492537</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>3.685216160379583</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0.002320240665992013</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>3.699822677235627</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0.002331440924493944</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>3.714429194091671</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0.00234257166619789</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>3.729035710947715</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0.002353631382068733</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>3.743642227803758</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0.002364618567174404</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>3.758248744659801</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0.002375531721022672</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>3.772855261515845</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0.002386369347899875</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>3.787461778371889</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0.002397129957208977</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>3.802068295227933</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0.002407812063808523</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>3.816674812083977</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0.00241841418835087</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>3.831281328940021</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0.002428934857620857</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>3.845887845796064</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0.002439372604875478</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>3.860494362652108</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.002449725970179895</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>3.875100879508151</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0.00245999350074777</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>3.889707396364195</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0.002470173751277616</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>3.904313913220239</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0.002480265284289684</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>3.918920430076283</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0.002490266670462982</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>3.933526946932327</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0.002500176488970052</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>3.94813346378837</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0.002509993327812376</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>3.962739980644414</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0.002519715784153276</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>3.977346497500458</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0.002529342464650919</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>3.991953014356501</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0.002538871985789781</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>4.006559531212545</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0.002548302974210381</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>4.021166048068589</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0.002557634067037795</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>4.035772564924633</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0.002566863912209394</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>4.050379081780676</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0.002575991168799252</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>4.06498559863672</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0.00258501450734272</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>4.079592115492764</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0.002593932610157168</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>4.094198632348808</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0.002602744171663229</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>4.108805149204851</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0.002611447898700991</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>4.123411666060895</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0.002620042510846687</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>4.138018182916939</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0.002628526740724668</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>4.152624699772982</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0.002636899334320431</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>4.167231216629026</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0.002645159051285761</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>4.18183773348507</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0.002653304665247103</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>4.196444250341114</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0.002661334964107365</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>4.211050767197158</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0.002669248750345909</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>4.225657284053201</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0.002677044841316478</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>4.240263800909245</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0.002684722069540069</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>4.254870317765288</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0.002692279282997811</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>4.269476834621332</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0.002699715345416798</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>4.284083351477376</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0.002707029136555683</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>4.29868986833342</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0.002714219552485075</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>4.313296385189464</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0.002721285505865922</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>4.327902902045508</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0.002728225926221794</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>4.342509418901551</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0.002735039760210389</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>4.357115935757594</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0.002741725971889208</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>4.371722452613638</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0.002748283542977403</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>4.386328969469682</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0.002754711473114901</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>4.400935486325726</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0.002761008780116148</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>4.41554200318177</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0.002767174500220015</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>4.430148520037814</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0.002773207688336221</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>4.444755036893858</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0.002779107418285187</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>4.459361553749901</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0.00278487278303724</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>4.473968070605944</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0.002790502894942093</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>4.488574587461988</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0.002795996885958829</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>4.503181104318032</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0.002801353907878001</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>4.517787621174076</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0.002806573132539791</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>4.53239413803012</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0.002811653752047449</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>4.547000654886164</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0.002816594978975628</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>4.561607171742207</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0.002821396046574109</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>4.576213688598251</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0.002826056208965144</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>4.590820205454294</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0.002830574741337855</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>4.605426722310338</v>
+      </c>
+      <c r="B479" t="n">
+        <v>0.002834950940134751</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>4.620033239166382</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0.002839184123235416</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>4.634639756022426</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0.002843273630132925</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>4.64924627287847</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0.002847218822105813</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>4.663852789734513</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0.002851019082385109</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>4.678459306590557</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0.002854673816313213</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>4.693065823446601</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0.002858182451500713</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>4.707672340302644</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0.002861544437975094</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>4.722278857158688</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0.0028647592483243</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>4.736885374014732</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0.002867826377834892</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>4.751491890870776</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0.002870745344623671</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>4.766098407726819</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0.002873515689765127</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>4.780704924582863</v>
+      </c>
+      <c r="B491" t="n">
+        <v>0.002876136977409294</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>4.795311441438907</v>
+      </c>
+      <c r="B492" t="n">
+        <v>0.002878608794898596</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>4.809917958294951</v>
+      </c>
+      <c r="B493" t="n">
+        <v>0.002880930752874544</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>4.824524475150994</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0.002883102485380484</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>4.839130992007038</v>
+      </c>
+      <c r="B495" t="n">
+        <v>0.002885123649957633</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>4.853737508863082</v>
+      </c>
+      <c r="B496" t="n">
+        <v>0.002886993927734838</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>4.868344025719125</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0.002888713023513567</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>4.882950542575169</v>
+      </c>
+      <c r="B498" t="n">
+        <v>0.002890280665843403</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>4.897557059431213</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0.00289169660709554</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>4.912163576287257</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0.002892960623527008</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>4.9267700931433</v>
+      </c>
+      <c r="B501" t="n">
+        <v>0.00289407251533963</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>4.941376609999344</v>
+      </c>
+      <c r="B502" t="n">
+        <v>0.002895032106733086</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>4.955983126855388</v>
+      </c>
+      <c r="B503" t="n">
+        <v>0.002895839245950493</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>4.970589643711431</v>
+      </c>
+      <c r="B504" t="n">
+        <v>0.002896493805319644</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>4.985196160567475</v>
+      </c>
+      <c r="B505" t="n">
+        <v>0.00289699568128482</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>4.999802677423519</v>
+      </c>
+      <c r="B506" t="n">
+        <v>0.002897344794435985</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>5.014409194279563</v>
+      </c>
+      <c r="B507" t="n">
+        <v>0.002897541089528444</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>5.029015711135607</v>
+      </c>
+      <c r="B508" t="n">
+        <v>0.002897584535498154</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>5.04362222799165</v>
+      </c>
+      <c r="B509" t="n">
+        <v>0.002897475125469451</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>5.058228744847694</v>
+      </c>
+      <c r="B510" t="n">
+        <v>0.002897212876756816</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>5.072835261703737</v>
+      </c>
+      <c r="B511" t="n">
+        <v>0.002896797830861497</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>5.087441778559781</v>
+      </c>
+      <c r="B512" t="n">
+        <v>0.002896230053458182</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>5.102048295415825</v>
+      </c>
+      <c r="B513" t="n">
+        <v>0.002895509634380122</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>5.116654812271869</v>
+      </c>
+      <c r="B514" t="n">
+        <v>0.002894636687594154</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>5.131261329127913</v>
+      </c>
+      <c r="B515" t="n">
+        <v>0.002893611351170722</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>5.145867845983957</v>
+      </c>
+      <c r="B516" t="n">
+        <v>0.002892433787247906</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>5.16047436284</v>
+      </c>
+      <c r="B517" t="n">
+        <v>0.002891104181988235</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>5.175080879696043</v>
+      </c>
+      <c r="B518" t="n">
+        <v>0.002889622745530174</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>5.189687396552087</v>
+      </c>
+      <c r="B519" t="n">
+        <v>0.002887989711932271</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>5.204293913408131</v>
+      </c>
+      <c r="B520" t="n">
+        <v>0.002886205339111658</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>5.218900430264175</v>
+      </c>
+      <c r="B521" t="n">
+        <v>0.002884269908776105</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>5.233506947120219</v>
+      </c>
+      <c r="B522" t="n">
+        <v>0.002882183726350518</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>5.248113463976263</v>
+      </c>
+      <c r="B523" t="n">
+        <v>0.002879947120895454</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>5.262719980832307</v>
+      </c>
+      <c r="B524" t="n">
+        <v>0.002877560445021632</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>5.27732649768835</v>
+      </c>
+      <c r="B525" t="n">
+        <v>0.002875024074797228</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>5.291933014544393</v>
+      </c>
+      <c r="B526" t="n">
+        <v>0.002872338409647957</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>5.306539531400437</v>
+      </c>
+      <c r="B527" t="n">
+        <v>0.002869503872253709</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>5.321146048256481</v>
+      </c>
+      <c r="B528" t="n">
+        <v>0.002866520908436865</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>5.335752565112525</v>
+      </c>
+      <c r="B529" t="n">
+        <v>0.002863389987045828</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>5.350359081968569</v>
+      </c>
+      <c r="B530" t="n">
+        <v>0.002860111599831572</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>5.364965598824613</v>
+      </c>
+      <c r="B531" t="n">
+        <v>0.002856686261319852</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>5.379572115680656</v>
+      </c>
+      <c r="B532" t="n">
+        <v>0.00285311450867598</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>5.3941786325367</v>
+      </c>
+      <c r="B533" t="n">
+        <v>0.002849396901564161</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>5.408785149392743</v>
+      </c>
+      <c r="B534" t="n">
+        <v>0.002845534022002494</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>5.423391666248787</v>
+      </c>
+      <c r="B535" t="n">
+        <v>0.002841526474209766</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>5.437998183104831</v>
+      </c>
+      <c r="B536" t="n">
+        <v>0.002837374884448685</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>5.452604699960875</v>
+      </c>
+      <c r="B537" t="n">
+        <v>0.002833079900863233</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>5.467211216816919</v>
+      </c>
+      <c r="B538" t="n">
+        <v>0.002828642193308251</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>5.481817733672962</v>
+      </c>
+      <c r="B539" t="n">
+        <v>0.002824062453178344</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>5.496424250529006</v>
+      </c>
+      <c r="B540" t="n">
+        <v>0.002819341393224817</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>5.51103076738505</v>
+      </c>
+      <c r="B541" t="n">
+        <v>0.002814479747373477</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>5.525637284241093</v>
+      </c>
+      <c r="B542" t="n">
+        <v>0.002809478270533461</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>5.540243801097137</v>
+      </c>
+      <c r="B543" t="n">
+        <v>0.002804337738402052</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>5.554850317953181</v>
+      </c>
+      <c r="B544" t="n">
+        <v>0.002799058947264177</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>5.569456834809225</v>
+      </c>
+      <c r="B545" t="n">
+        <v>0.002793642713786904</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>5.584063351665268</v>
+      </c>
+      <c r="B546" t="n">
+        <v>0.002788089874809163</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>5.598669868521312</v>
+      </c>
+      <c r="B547" t="n">
+        <v>0.002782401287125369</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>5.613276385377356</v>
+      </c>
+      <c r="B548" t="n">
+        <v>0.002776577827266591</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>5.6278829022334</v>
+      </c>
+      <c r="B549" t="n">
+        <v>0.002770620391274292</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>5.642489419089443</v>
+      </c>
+      <c r="B550" t="n">
+        <v>0.002764529894471179</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>5.657095935945486</v>
+      </c>
+      <c r="B551" t="n">
+        <v>0.002758307271227278</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>5.671702452801531</v>
+      </c>
+      <c r="B552" t="n">
+        <v>0.002751953474719349</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>5.686308969657574</v>
+      </c>
+      <c r="B553" t="n">
+        <v>0.002745469476690965</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>5.700915486513619</v>
+      </c>
+      <c r="B554" t="n">
+        <v>0.002738856267200829</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>5.715522003369662</v>
+      </c>
+      <c r="B555" t="n">
+        <v>0.002732114854374967</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>5.730128520225707</v>
+      </c>
+      <c r="B556" t="n">
+        <v>0.002725246264146941</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>5.74473503708175</v>
+      </c>
+      <c r="B557" t="n">
+        <v>0.002718251540001493</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>5.759341553937793</v>
+      </c>
+      <c r="B558" t="n">
+        <v>0.002711131742708095</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>5.773948070793837</v>
+      </c>
+      <c r="B559" t="n">
+        <v>0.002703887950052275</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>5.78855458764988</v>
+      </c>
+      <c r="B560" t="n">
+        <v>0.002696521256568163</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>5.803161104505925</v>
+      </c>
+      <c r="B561" t="n">
+        <v>0.002689032773257161</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>5.817767621361968</v>
+      </c>
+      <c r="B562" t="n">
+        <v>0.002681423627314938</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>5.832374138218013</v>
+      </c>
+      <c r="B563" t="n">
+        <v>0.002673694961843665</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>5.846980655074056</v>
+      </c>
+      <c r="B564" t="n">
+        <v>0.00266584793557012</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>5.861587171930099</v>
+      </c>
+      <c r="B565" t="n">
+        <v>0.002657883722554821</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>5.876193688786143</v>
+      </c>
+      <c r="B566" t="n">
+        <v>0.002649803511898252</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>5.890800205642186</v>
+      </c>
+      <c r="B567" t="n">
+        <v>0.002641608507449322</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>5.905406722498231</v>
+      </c>
+      <c r="B568" t="n">
+        <v>0.002633299927502053</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>5.920013239354274</v>
+      </c>
+      <c r="B569" t="n">
+        <v>0.002624879004499148</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>5.934619756210319</v>
+      </c>
+      <c r="B570" t="n">
+        <v>0.002616346984722795</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>5.949226273066362</v>
+      </c>
+      <c r="B571" t="n">
+        <v>0.002607705127992466</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>5.963832789922405</v>
+      </c>
+      <c r="B572" t="n">
+        <v>0.002598954707353163</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>5.97843930677845</v>
+      </c>
+      <c r="B573" t="n">
+        <v>0.002590097008762116</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>5.993045823634493</v>
+      </c>
+      <c r="B574" t="n">
+        <v>0.002581133330779362</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>6.007652340490537</v>
+      </c>
+      <c r="B575" t="n">
+        <v>0.002572064984245226</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>6.02225885734658</v>
+      </c>
+      <c r="B576" t="n">
+        <v>0.002562893291966906</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>6.036865374202625</v>
+      </c>
+      <c r="B577" t="n">
+        <v>0.002553619588394174</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>6.051471891058668</v>
+      </c>
+      <c r="B578" t="n">
+        <v>0.002544245219299079</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>6.066078407914711</v>
+      </c>
+      <c r="B579" t="n">
+        <v>0.002534771541450875</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>6.080684924770756</v>
+      </c>
+      <c r="B580" t="n">
+        <v>0.002525199922287835</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>6.095291441626799</v>
+      </c>
+      <c r="B581" t="n">
+        <v>0.002515531739594512</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>6.109897958482843</v>
+      </c>
+      <c r="B582" t="n">
+        <v>0.002505768381165674</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>6.124504475338886</v>
+      </c>
+      <c r="B583" t="n">
+        <v>0.002495911244482896</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>6.139110992194931</v>
+      </c>
+      <c r="B584" t="n">
+        <v>0.002485961736376163</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>6.153717509050974</v>
+      </c>
+      <c r="B585" t="n">
+        <v>0.002475921272696024</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>6.168324025907017</v>
+      </c>
+      <c r="B586" t="n">
+        <v>0.002465791277976637</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>6.182930542763062</v>
+      </c>
+      <c r="B587" t="n">
+        <v>0.002455573185099813</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>6.197537059619105</v>
+      </c>
+      <c r="B588" t="n">
+        <v>0.00244526843496351</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>6.21214357647515</v>
+      </c>
+      <c r="B589" t="n">
+        <v>0.002434878476139324</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>6.226750093331193</v>
+      </c>
+      <c r="B590" t="n">
+        <v>0.00242440476454131</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>6.241356610187237</v>
+      </c>
+      <c r="B591" t="n">
+        <v>0.002413848763082371</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>6.25596312704328</v>
+      </c>
+      <c r="B592" t="n">
+        <v>0.002403211941341299</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>6.270569643899323</v>
+      </c>
+      <c r="B593" t="n">
+        <v>0.002392495775221049</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>6.285176160755368</v>
+      </c>
+      <c r="B594" t="n">
+        <v>0.002381701746610121</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>6.299782677611411</v>
+      </c>
+      <c r="B595" t="n">
+        <v>0.002370831343047497</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>6.314389194467456</v>
+      </c>
+      <c r="B596" t="n">
+        <v>0.002359886057378024</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>6.328995711323499</v>
+      </c>
+      <c r="B597" t="n">
+        <v>0.002348867387420794</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>6.343602228179543</v>
+      </c>
+      <c r="B598" t="n">
+        <v>0.002337776835623639</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>6.358208745035586</v>
+      </c>
+      <c r="B599" t="n">
+        <v>0.002326615908732288</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>6.372815261891629</v>
+      </c>
+      <c r="B600" t="n">
+        <v>0.002315386117447416</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>6.387421778747674</v>
+      </c>
+      <c r="B601" t="n">
+        <v>0.002304088976090246</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>6.402028295603717</v>
+      </c>
+      <c r="B602" t="n">
+        <v>0.002292726002266599</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>6.416634812459762</v>
+      </c>
+      <c r="B603" t="n">
+        <v>0.00228129871652949</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>6.431241329315805</v>
+      </c>
+      <c r="B604" t="n">
+        <v>0.002269808642047511</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>6.44584784617185</v>
+      </c>
+      <c r="B605" t="n">
+        <v>0.002258257304267652</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>6.460454363027893</v>
+      </c>
+      <c r="B606" t="n">
+        <v>0.002246646230586125</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>6.475060879883936</v>
+      </c>
+      <c r="B607" t="n">
+        <v>0.002234976950014733</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>6.48966739673998</v>
+      </c>
+      <c r="B608" t="n">
+        <v>0.002223250992850812</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>6.504273913596023</v>
+      </c>
+      <c r="B609" t="n">
+        <v>0.002211469890350704</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>6.518880430452068</v>
+      </c>
+      <c r="B610" t="n">
+        <v>0.002199635174399472</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>6.533486947308111</v>
+      </c>
+      <c r="B611" t="n">
+        <v>0.002187748377187937</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>6.548093464164156</v>
+      </c>
+      <c r="B612" t="n">
+        <v>0.002175811030885377</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>6.562699981020199</v>
+      </c>
+      <c r="B613" t="n">
+        <v>0.002163824667321457</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>6.577306497876242</v>
+      </c>
+      <c r="B614" t="n">
+        <v>0.002151790817662036</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>6.591913014732286</v>
+      </c>
+      <c r="B615" t="n">
+        <v>0.002139711012091539</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>6.606519531588329</v>
+      </c>
+      <c r="B616" t="n">
+        <v>0.002127586779498869</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>6.621126048444374</v>
+      </c>
+      <c r="B617" t="n">
+        <v>0.002115419647158334</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>6.635732565300417</v>
+      </c>
+      <c r="B618" t="n">
+        <v>0.002103211140422889</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>6.650339082156462</v>
+      </c>
+      <c r="B619" t="n">
+        <v>0.002090962782409389</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>6.664945599012505</v>
+      </c>
+      <c r="B620" t="n">
+        <v>0.002078676093693721</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>6.679552115868548</v>
+      </c>
+      <c r="B621" t="n">
+        <v>0.002066352592005938</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>6.694158632724593</v>
+      </c>
+      <c r="B622" t="n">
+        <v>0.002053993791924724</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>6.708765149580636</v>
+      </c>
+      <c r="B623" t="n">
+        <v>0.002041601204581855</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>6.72337166643668</v>
+      </c>
+      <c r="B624" t="n">
+        <v>0.002029176337360106</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>6.737978183292723</v>
+      </c>
+      <c r="B625" t="n">
+        <v>0.002016720693604146</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>6.752584700148768</v>
+      </c>
+      <c r="B626" t="n">
+        <v>0.002004235772322449</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>6.767191217004811</v>
+      </c>
+      <c r="B627" t="n">
+        <v>0.00199172306790496</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>6.781797733860854</v>
+      </c>
+      <c r="B628" t="n">
+        <v>0.001979184069833551</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>6.796404250716899</v>
+      </c>
+      <c r="B629" t="n">
+        <v>0.001966620262398466</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>6.811010767572942</v>
+      </c>
+      <c r="B630" t="n">
+        <v>0.001954033124423993</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>6.825617284428986</v>
+      </c>
+      <c r="B631" t="n">
+        <v>0.001941424128985014</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>6.840223801285029</v>
+      </c>
+      <c r="B632" t="n">
+        <v>0.001928794743140672</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>6.854830318141074</v>
+      </c>
+      <c r="B633" t="n">
+        <v>0.001916146427659138</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>6.869436834997117</v>
+      </c>
+      <c r="B634" t="n">
+        <v>0.001903480636755717</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>6.88404335185316</v>
+      </c>
+      <c r="B635" t="n">
+        <v>0.001890798817827388</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>6.898649868709205</v>
+      </c>
+      <c r="B636" t="n">
+        <v>0.001878102411192573</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>6.913256385565248</v>
+      </c>
+      <c r="B637" t="n">
+        <v>0.001865392849839886</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>6.927862902421293</v>
+      </c>
+      <c r="B638" t="n">
+        <v>0.001852671559170127</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>6.942469419277336</v>
+      </c>
+      <c r="B639" t="n">
+        <v>0.001839939956752912</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>6.95707593613338</v>
+      </c>
+      <c r="B640" t="n">
+        <v>0.00182719945207821</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>6.971682452989423</v>
+      </c>
+      <c r="B641" t="n">
+        <v>0.001814451446318532</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>6.986288969845466</v>
+      </c>
+      <c r="B642" t="n">
+        <v>0.001801697332089791</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>7.000895486701511</v>
+      </c>
+      <c r="B643" t="n">
+        <v>0.001788938493218373</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>7.015502003557554</v>
+      </c>
+      <c r="B644" t="n">
+        <v>0.001776176304513877</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>7.030108520413599</v>
+      </c>
+      <c r="B645" t="n">
+        <v>0.00176341213154052</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>7.044715037269642</v>
+      </c>
+      <c r="B646" t="n">
+        <v>0.00175064733040009</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>7.059321554125686</v>
+      </c>
+      <c r="B647" t="n">
+        <v>0.001737883247510563</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>7.073928070981729</v>
+      </c>
+      <c r="B648" t="n">
+        <v>0.001725121219396941</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>7.088534587837772</v>
+      </c>
+      <c r="B649" t="n">
+        <v>0.001712362572479864</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>7.103141104693817</v>
+      </c>
+      <c r="B650" t="n">
+        <v>0.001699608622871107</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>7.11774762154986</v>
+      </c>
+      <c r="B651" t="n">
+        <v>0.001686860676175739</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>7.132354138405905</v>
+      </c>
+      <c r="B652" t="n">
+        <v>0.001674120027291837</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>7.146960655261948</v>
+      </c>
+      <c r="B653" t="n">
+        <v>0.001661387960222194</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>7.161567172117993</v>
+      </c>
+      <c r="B654" t="n">
+        <v>0.001648665747884248</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>7.176173688974036</v>
+      </c>
+      <c r="B655" t="n">
+        <v>0.001635954651928895</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>7.190780205830078</v>
+      </c>
+      <c r="B656" t="n">
+        <v>0.00162325592255963</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>7.205386722686123</v>
+      </c>
+      <c r="B657" t="n">
+        <v>0.00161057079835869</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>7.219993239542166</v>
+      </c>
+      <c r="B658" t="n">
+        <v>0.001597900506117966</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>7.234599756398211</v>
+      </c>
+      <c r="B659" t="n">
+        <v>0.00158524626067158</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>7.249206273254254</v>
+      </c>
+      <c r="B660" t="n">
+        <v>0.001572609264736347</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>7.263812790110299</v>
+      </c>
+      <c r="B661" t="n">
+        <v>0.001559990708753012</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>7.278419306966342</v>
+      </c>
+      <c r="B662" t="n">
+        <v>0.001547391770735929</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>7.293025823822385</v>
+      </c>
+      <c r="B663" t="n">
+        <v>0.001534813616123842</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>7.307632340678429</v>
+      </c>
+      <c r="B664" t="n">
+        <v>0.001522257397636451</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>7.322238857534472</v>
+      </c>
+      <c r="B665" t="n">
+        <v>0.001509724255137734</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="n">
+        <v>7.336845374390517</v>
+      </c>
+      <c r="B666" t="n">
+        <v>0.001497215315497402</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="n">
+        <v>7.35145189124656</v>
+      </c>
+      <c r="B667" t="n">
+        <v>0.001484731692465768</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>7.366058408102605</v>
+      </c>
+      <c r="B668" t="n">
+        <v>0.001472274486545189</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>7.380664924958648</v>
+      </c>
+      <c r="B669" t="n">
+        <v>0.001459844784870268</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="n">
+        <v>7.395271441814691</v>
+      </c>
+      <c r="B670" t="n">
+        <v>0.001447443661092507</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="n">
+        <v>7.409877958670736</v>
+      </c>
+      <c r="B671" t="n">
+        <v>0.001435072175266172</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="n">
+        <v>7.424484475526778</v>
+      </c>
+      <c r="B672" t="n">
+        <v>0.001422731373744379</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="n">
+        <v>7.439090992382823</v>
+      </c>
+      <c r="B673" t="n">
+        <v>0.001410422289072399</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>7.453697509238866</v>
+      </c>
+      <c r="B674" t="n">
+        <v>0.00139814593989418</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>7.468304026094911</v>
+      </c>
+      <c r="B675" t="n">
+        <v>0.001385903330853644</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>7.482910542950954</v>
+      </c>
+      <c r="B676" t="n">
+        <v>0.001373695452509427</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>7.497517059806997</v>
+      </c>
+      <c r="B677" t="n">
+        <v>0.001361523281247612</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="n">
+        <v>7.512123576663042</v>
+      </c>
+      <c r="B678" t="n">
+        <v>0.001349387779203126</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="n">
+        <v>7.526730093519085</v>
+      </c>
+      <c r="B679" t="n">
+        <v>0.001337289894182914</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>7.541336610375129</v>
+      </c>
+      <c r="B680" t="n">
+        <v>0.001325230559593882</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>7.555943127231172</v>
+      </c>
+      <c r="B681" t="n">
+        <v>0.001313210694379174</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>7.570549644087217</v>
+      </c>
+      <c r="B682" t="n">
+        <v>0.001301231202950115</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>7.58515616094326</v>
+      </c>
+      <c r="B683" t="n">
+        <v>0.001289292975133804</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="n">
+        <v>7.599762677799303</v>
+      </c>
+      <c r="B684" t="n">
+        <v>0.001277396886115723</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="n">
+        <v>7.614369194655348</v>
+      </c>
+      <c r="B685" t="n">
+        <v>0.001265543796390323</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>7.628975711511391</v>
+      </c>
+      <c r="B686" t="n">
+        <v>0.001253734551717955</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>7.643582228367436</v>
+      </c>
+      <c r="B687" t="n">
+        <v>0.001241969983081459</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>7.658188745223478</v>
+      </c>
+      <c r="B688" t="n">
+        <v>0.001230250906651964</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>7.672795262079523</v>
+      </c>
+      <c r="B689" t="n">
+        <v>0.001218578123754366</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="n">
+        <v>7.687401778935566</v>
+      </c>
+      <c r="B690" t="n">
+        <v>0.001206952420839902</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="n">
+        <v>7.702008295791609</v>
+      </c>
+      <c r="B691" t="n">
+        <v>0.00119537456946317</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="n">
+        <v>7.716614812647654</v>
+      </c>
+      <c r="B692" t="n">
+        <v>0.001183845326260036</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>7.731221329503697</v>
+      </c>
+      <c r="B693" t="n">
+        <v>0.001172365432933975</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>7.745827846359742</v>
+      </c>
+      <c r="B694" t="n">
+        <v>0.001160935616242642</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>7.760434363215785</v>
+      </c>
+      <c r="B695" t="n">
+        <v>0.001149556587992429</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>7.775040880071829</v>
+      </c>
+      <c r="B696" t="n">
+        <v>0.001138229045031025</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="n">
+        <v>7.789647396927872</v>
+      </c>
+      <c r="B697" t="n">
+        <v>0.001126953669252417</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="n">
+        <v>7.804253913783915</v>
+      </c>
+      <c r="B698" t="n">
+        <v>0.001115731127596997</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="n">
+        <v>7.81886043063996</v>
+      </c>
+      <c r="B699" t="n">
+        <v>0.001104562072062221</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="n">
+        <v>7.833466947496003</v>
+      </c>
+      <c r="B700" t="n">
+        <v>0.001093447139713377</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>7.848073464352048</v>
+      </c>
+      <c r="B701" t="n">
+        <v>0.00108238695269891</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>7.862679981208091</v>
+      </c>
+      <c r="B702" t="n">
+        <v>0.001071382118271957</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>7.877286498064136</v>
+      </c>
+      <c r="B703" t="n">
+        <v>0.001060433228810775</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>7.891893014920178</v>
+      </c>
+      <c r="B704" t="n">
+        <v>0.001049540861847609</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="n">
+        <v>7.906499531776221</v>
+      </c>
+      <c r="B705" t="n">
+        <v>0.001038705580098997</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="n">
+        <v>7.921106048632266</v>
+      </c>
+      <c r="B706" t="n">
+        <v>0.001027927931497863</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="n">
+        <v>7.935712565488309</v>
+      </c>
+      <c r="B707" t="n">
+        <v>0.001017208449234253</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>7.950319082344354</v>
+      </c>
+      <c r="B708" t="n">
+        <v>0.001006547651793643</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>7.964925599200397</v>
+      </c>
+      <c r="B709" t="n">
+        <v>0.0009959460430031264</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>7.979532116056442</v>
+      </c>
+      <c r="B710" t="n">
+        <v>0.0009854041120783696</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>7.994138632912485</v>
+      </c>
+      <c r="B711" t="n">
+        <v>0.0009749223336753543</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="n">
+        <v>8.008745149768528</v>
+      </c>
+      <c r="B712" t="n">
+        <v>0.0009645011679446647</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="n">
+        <v>8.023351666624572</v>
+      </c>
+      <c r="B713" t="n">
+        <v>0.0009541410605887757</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="n">
+        <v>8.037958183480615</v>
+      </c>
+      <c r="B714" t="n">
+        <v>0.0009438424429242254</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>8.05256470033666</v>
+      </c>
+      <c r="B715" t="n">
+        <v>0.0009336057319436764</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>8.067171217192703</v>
+      </c>
+      <c r="B716" t="n">
+        <v>0.0009234313303851938</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>8.081777734048748</v>
+      </c>
+      <c r="B717" t="n">
+        <v>0.0009133196268001909</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>8.096384250904791</v>
+      </c>
+      <c r="B718" t="n">
+        <v>0.0009032709956283691</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="n">
+        <v>8.110990767760834</v>
+      </c>
+      <c r="B719" t="n">
+        <v>0.0008932857972724362</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="n">
+        <v>8.125597284616878</v>
+      </c>
+      <c r="B720" t="n">
+        <v>0.0008833643781771539</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="n">
+        <v>8.140203801472921</v>
+      </c>
+      <c r="B721" t="n">
+        <v>0.0008735070709114945</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>8.154810318328966</v>
+      </c>
+      <c r="B722" t="n">
+        <v>0.0008637141942519078</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>8.169416835185009</v>
+      </c>
+      <c r="B723" t="n">
+        <v>0.0008539860532711385</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="n">
+        <v>8.184023352041054</v>
+      </c>
+      <c r="B724" t="n">
+        <v>0.0008443229394250462</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="n">
+        <v>8.198629868897097</v>
+      </c>
+      <c r="B725" t="n">
+        <v>0.0008347251306480841</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="n">
+        <v>8.21323638575314</v>
+      </c>
+      <c r="B726" t="n">
+        <v>0.0008251928914453366</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>8.227842902609185</v>
+      </c>
+      <c r="B727" t="n">
+        <v>0.0008157264729908853</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>8.242449419465228</v>
+      </c>
+      <c r="B728" t="n">
+        <v>0.0008063261132279509</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>8.257055936321272</v>
+      </c>
+      <c r="B729" t="n">
+        <v>0.0007969920369682582</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>8.271662453177315</v>
+      </c>
+      <c r="B730" t="n">
+        <v>0.0007877244559999497</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="n">
+        <v>8.28626897003336</v>
+      </c>
+      <c r="B731" t="n">
+        <v>0.0007785235691902814</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="n">
+        <v>8.300875486889403</v>
+      </c>
+      <c r="B732" t="n">
+        <v>0.0007693895625966451</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="n">
+        <v>8.315482003745446</v>
+      </c>
+      <c r="B733" t="n">
+        <v>0.0007603226095758142</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>8.330088520601491</v>
+      </c>
+      <c r="B734" t="n">
+        <v>0.0007513228708970754</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>8.344695037457534</v>
+      </c>
+      <c r="B735" t="n">
+        <v>0.000742390494857248</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="n">
+        <v>8.359301554313578</v>
+      </c>
+      <c r="B736" t="n">
+        <v>0.0007335256173957028</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="n">
+        <v>8.373908071169621</v>
+      </c>
+      <c r="B737" t="n">
+        <v>0.0007247283622154876</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="n">
+        <v>8.388514588025666</v>
+      </c>
+      <c r="B738" t="n">
+        <v>0.0007159988408997897</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>8.403121104881709</v>
+      </c>
+      <c r="B739" t="n">
+        <v>0.0007073371530375017</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>8.417727621737752</v>
+      </c>
+      <c r="B740" t="n">
+        <v>0.0006987433863446801</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="n">
+        <v>8.432334138593797</v>
+      </c>
+      <c r="B741" t="n">
+        <v>0.000690217616790112</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="n">
+        <v>8.44694065544984</v>
+      </c>
+      <c r="B742" t="n">
+        <v>0.0006817599087225457</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="n">
+        <v>8.461547172305885</v>
+      </c>
+      <c r="B743" t="n">
+        <v>0.0006733703149985892</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>8.476153689161928</v>
+      </c>
+      <c r="B744" t="n">
+        <v>0.0006650488771128282</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>8.490760206017972</v>
+      </c>
+      <c r="B745" t="n">
+        <v>0.000656795625328388</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="n">
+        <v>8.505366722874015</v>
+      </c>
+      <c r="B746" t="n">
+        <v>0.0006486105788099383</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="n">
+        <v>8.519973239730058</v>
+      </c>
+      <c r="B747" t="n">
+        <v>0.0006404937457571425</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="n">
+        <v>8.534579756586103</v>
+      </c>
+      <c r="B748" t="n">
+        <v>0.0006324451235392159</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>8.549186273442146</v>
+      </c>
+      <c r="B749" t="n">
+        <v>0.0006244646988321501</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>8.563792790298191</v>
+      </c>
+      <c r="B750" t="n">
+        <v>0.0006165524477544926</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="n">
+        <v>8.578399307154234</v>
+      </c>
+      <c r="B751" t="n">
+        <v>0.0006087083360062362</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="n">
+        <v>8.593005824010278</v>
+      </c>
+      <c r="B752" t="n">
+        <v>0.0006009323190081517</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="n">
+        <v>8.607612340866321</v>
+      </c>
+      <c r="B753" t="n">
+        <v>0.0005932243420421202</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>8.622218857722364</v>
+      </c>
+      <c r="B754" t="n">
+        <v>0.00058558434039091</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>8.636825374578409</v>
+      </c>
+      <c r="B755" t="n">
+        <v>0.0005780122394812848</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="n">
+        <v>8.651431891434452</v>
+      </c>
+      <c r="B756" t="n">
+        <v>0.0005705079550264447</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="n">
+        <v>8.666038408290497</v>
+      </c>
+      <c r="B757" t="n">
+        <v>0.0005630713931682463</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="n">
+        <v>8.68064492514654</v>
+      </c>
+      <c r="B758" t="n">
+        <v>0.0005557024506223085</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>8.695251442002585</v>
+      </c>
+      <c r="B759" t="n">
+        <v>0.0005484010148221197</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>8.709857958858628</v>
+      </c>
+      <c r="B760" t="n">
+        <v>0.0005411669640636996</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="n">
+        <v>8.724464475714671</v>
+      </c>
+      <c r="B761" t="n">
+        <v>0.0005340001676522599</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="n">
+        <v>8.739070992570715</v>
+      </c>
+      <c r="B762" t="n">
+        <v>0.0005269004860463111</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="n">
+        <v>8.753677509426758</v>
+      </c>
+      <c r="B763" t="n">
+        <v>0.0005198677710067656</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>8.768284026282803</v>
+      </c>
+      <c r="B764" t="n">
+        <v>0.0005129018657404893</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>8.782890543138846</v>
+      </c>
+      <c r="B765" t="n">
+        <v>0.0005060026050504041</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="n">
+        <v>8.797497059994891</v>
+      </c>
+      <c r="B766" t="n">
+        <v>0.0004991698154800384</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="n">
+        <v>8.812103576850934</v>
+      </c>
+      <c r="B767" t="n">
+        <v>0.0004924033154631857</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="n">
+        <v>8.826710093706977</v>
+      </c>
+      <c r="B768" t="n">
+        <v>0.0004857029154700099</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="n">
+        <v>8.841316610563021</v>
+      </c>
+      <c r="B769" t="n">
+        <v>0.0004790684181551486</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>8.855923127419064</v>
+      </c>
+      <c r="B770" t="n">
+        <v>0.0004724996185057062</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>8.870529644275109</v>
+      </c>
+      <c r="B771" t="n">
+        <v>0.0004659963039886916</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="n">
+        <v>8.885136161131152</v>
+      </c>
+      <c r="B772" t="n">
+        <v>0.0004595582546984556</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="n">
+        <v>8.899742677987197</v>
+      </c>
+      <c r="B773" t="n">
+        <v>0.0004531852435045725</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="n">
+        <v>8.91434919484324</v>
+      </c>
+      <c r="B774" t="n">
+        <v>0.000446877036199278</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>8.928955711699283</v>
+      </c>
+      <c r="B775" t="n">
+        <v>0.0004406333916446847</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>8.943562228555328</v>
+      </c>
+      <c r="B776" t="n">
+        <v>0.0004344540619191095</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="n">
+        <v>8.958168745411371</v>
+      </c>
+      <c r="B777" t="n">
+        <v>0.0004283387924648441</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="n">
+        <v>8.972775262267415</v>
+      </c>
+      <c r="B778" t="n">
+        <v>0.0004222873222338164</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>8.987381779123458</v>
+      </c>
+      <c r="B779" t="n">
+        <v>0.000416299383834029</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>9.001988295979503</v>
+      </c>
+      <c r="B780" t="n">
+        <v>0.0004103747036748873</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="n">
+        <v>9.016594812835546</v>
+      </c>
+      <c r="B781" t="n">
+        <v>0.0004045130021125276</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="n">
+        <v>9.031201329691589</v>
+      </c>
+      <c r="B782" t="n">
+        <v>0.0003987139935950346</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>9.045807846547634</v>
+      </c>
+      <c r="B783" t="n">
+        <v>0.0003929773868056596</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>9.060414363403677</v>
+      </c>
+      <c r="B784" t="n">
+        <v>0.0003873028848071502</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="n">
+        <v>9.075020880259721</v>
+      </c>
+      <c r="B785" t="n">
+        <v>0.0003816901851849686</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="n">
+        <v>9.089627397115764</v>
+      </c>
+      <c r="B786" t="n">
+        <v>0.000376138980189511</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>9.104233913971809</v>
+      </c>
+      <c r="B787" t="n">
+        <v>0.0003706489568773286</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>9.118840430827852</v>
+      </c>
+      <c r="B788" t="n">
+        <v>0.0003652197972532356</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>9.133446947683895</v>
+      </c>
+      <c r="B789" t="n">
+        <v>0.0003598511784099756</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>9.14805346453994</v>
+      </c>
+      <c r="B790" t="n">
+        <v>0.0003545427726679984</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="n">
+        <v>9.162659981395983</v>
+      </c>
+      <c r="B791" t="n">
+        <v>0.000349294247714349</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="n">
+        <v>9.177266498252028</v>
+      </c>
+      <c r="B792" t="n">
+        <v>0.0003441052667400024</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>9.191873015108071</v>
+      </c>
+      <c r="B793" t="n">
+        <v>0.0003389754885783081</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>9.206479531964115</v>
+      </c>
+      <c r="B794" t="n">
+        <v>0.0003339045678394381</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="n">
+        <v>9.221086048820158</v>
+      </c>
+      <c r="B795" t="n">
+        <v>0.0003288921550471668</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="n">
+        <v>9.235692565676201</v>
+      </c>
+      <c r="B796" t="n">
+        <v>0.0003239378967724305</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>9.250299082532246</v>
+      </c>
+      <c r="B797" t="n">
+        <v>0.0003190414357664428</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>9.264905599388289</v>
+      </c>
+      <c r="B798" t="n">
+        <v>0.0003142024110942554</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="n">
+        <v>9.279512116244334</v>
+      </c>
+      <c r="B799" t="n">
+        <v>0.0003094204582643201</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="n">
+        <v>9.294118633100377</v>
+      </c>
+      <c r="B800" t="n">
+        <v>0.0003046952093604949</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="n">
+        <v>9.308725149956421</v>
+      </c>
+      <c r="B801" t="n">
+        <v>0.0003000262931697195</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>9.323331666812464</v>
+      </c>
+      <c r="B802" t="n">
+        <v>0.0002954133353112454</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>9.337938183668507</v>
+      </c>
+      <c r="B803" t="n">
+        <v>0.0002908559583627568</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="n">
+        <v>9.352544700524552</v>
+      </c>
+      <c r="B804" t="n">
+        <v>0.0002863537819866036</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="n">
+        <v>9.367151217380595</v>
+      </c>
+      <c r="B805" t="n">
+        <v>0.0002819064230542567</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="n">
+        <v>9.38175773423664</v>
+      </c>
+      <c r="B806" t="n">
+        <v>0.0002775134957699876</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>9.396364251092683</v>
+      </c>
+      <c r="B807" t="n">
+        <v>0.0002731746117923262</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>9.410970767948728</v>
+      </c>
+      <c r="B808" t="n">
+        <v>0.0002688893803558523</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="n">
+        <v>9.425577284804771</v>
+      </c>
+      <c r="B809" t="n">
+        <v>0.0002646574083907671</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="n">
+        <v>9.440183801660814</v>
+      </c>
+      <c r="B810" t="n">
+        <v>0.0002604783006406874</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="n">
+        <v>9.454790318516858</v>
+      </c>
+      <c r="B811" t="n">
+        <v>0.0002563516597806625</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>9.469396835372901</v>
+      </c>
+      <c r="B812" t="n">
+        <v>0.0002522770865320823</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>9.484003352228946</v>
+      </c>
+      <c r="B813" t="n">
+        <v>0.0002482541797785842</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="n">
+        <v>9.498609869084989</v>
+      </c>
+      <c r="B814" t="n">
+        <v>0.0002442825366774093</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="n">
+        <v>9.513216385941034</v>
+      </c>
+      <c r="B815" t="n">
+        <v>0.0002403617527730884</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="n">
+        <v>9.527822902797077</v>
+      </c>
+      <c r="B816" t="n">
+        <v>0.0002364914221063552</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>9.54242941965312</v>
+      </c>
+      <c r="B817" t="n">
+        <v>0.0002326711373242807</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>9.557035936509164</v>
+      </c>
+      <c r="B818" t="n">
+        <v>0.0002289004897876312</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="n">
+        <v>9.571642453365207</v>
+      </c>
+      <c r="B819" t="n">
+        <v>0.0002251790696770062</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="n">
+        <v>9.586248970221252</v>
+      </c>
+      <c r="B820" t="n">
+        <v>0.000221506466097976</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="n">
+        <v>9.600855487077295</v>
+      </c>
+      <c r="B821" t="n">
+        <v>0.0002178822671844438</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="n">
+        <v>9.61546200393334</v>
+      </c>
+      <c r="B822" t="n">
+        <v>0.0002143060602008973</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>9.630068520789383</v>
+      </c>
+      <c r="B823" t="n">
+        <v>0.0002107774316426614</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>9.644675037645426</v>
+      </c>
+      <c r="B824" t="n">
+        <v>0.0002072959673350416</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>9.659281554501471</v>
+      </c>
+      <c r="B825" t="n">
+        <v>0.0002038612525315786</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>9.673888071357513</v>
+      </c>
+      <c r="B826" t="n">
+        <v>0.0002004728720099713</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="n">
+        <v>9.688494588213558</v>
+      </c>
+      <c r="B827" t="n">
+        <v>0.0001971304101661131</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="n">
+        <v>9.703101105069601</v>
+      </c>
+      <c r="B828" t="n">
+        <v>0.0001938334511090156</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="n">
+        <v>9.717707621925646</v>
+      </c>
+      <c r="B829" t="n">
+        <v>0.000190581578750959</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>9.732314138781689</v>
+      </c>
+      <c r="B830" t="n">
+        <v>0.0001873743768987524</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>9.746920655637732</v>
+      </c>
+      <c r="B831" t="n">
+        <v>0.0001842114293427732</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="n">
+        <v>9.761527172493777</v>
+      </c>
+      <c r="B832" t="n">
+        <v>0.0001810923199434544</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="n">
+        <v>9.77613368934982</v>
+      </c>
+      <c r="B833" t="n">
+        <v>0.0001780166327176591</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="n">
+        <v>9.790740206205864</v>
+      </c>
+      <c r="B834" t="n">
+        <v>0.000174983951923724</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="n">
+        <v>9.805346723061907</v>
+      </c>
+      <c r="B835" t="n">
+        <v>0.0001719938621427275</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>9.819953239917952</v>
+      </c>
+      <c r="B836" t="n">
+        <v>0.0001690459483615347</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>9.834559756773995</v>
+      </c>
+      <c r="B837" t="n">
+        <v>0.0001661397960518451</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>9.849166273630038</v>
+      </c>
+      <c r="B838" t="n">
+        <v>0.0001632749912485743</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>9.863772790486083</v>
+      </c>
+      <c r="B839" t="n">
+        <v>0.0001604511206271253</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="n">
+        <v>9.878379307342126</v>
+      </c>
+      <c r="B840" t="n">
+        <v>0.0001576677715785513</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="n">
+        <v>9.892985824198171</v>
+      </c>
+      <c r="B841" t="n">
+        <v>0.0001549245322834958</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="n">
+        <v>9.907592341054213</v>
+      </c>
+      <c r="B842" t="n">
+        <v>0.0001522209917848016</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>9.922198857910258</v>
+      </c>
+      <c r="B843" t="n">
+        <v>0.0001495567400582321</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>9.936805374766301</v>
+      </c>
+      <c r="B844" t="n">
+        <v>0.0001469313680824147</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="n">
+        <v>9.951411891622344</v>
+      </c>
+      <c r="B845" t="n">
+        <v>0.0001443444679061212</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="n">
+        <v>9.966018408478389</v>
+      </c>
+      <c r="B846" t="n">
+        <v>0.0001417956327153247</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="n">
+        <v>9.980624925334432</v>
+      </c>
+      <c r="B847" t="n">
+        <v>0.0001392844568981477</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="n">
+        <v>9.995231442190477</v>
+      </c>
+      <c r="B848" t="n">
+        <v>0.0001368105361084782</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>10.00983795904652</v>
+      </c>
+      <c r="B849" t="n">
+        <v>0.0001343734673280306</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>10.02444447590256</v>
+      </c>
+      <c r="B850" t="n">
+        <v>0.0001319728489271865</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>10.03905099275861</v>
+      </c>
+      <c r="B851" t="n">
+        <v>0.0001296082807239474</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>10.05365750961465</v>
+      </c>
+      <c r="B852" t="n">
+        <v>0.000127279364042221</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="n">
+        <v>10.0682640264707</v>
+      </c>
+      <c r="B853" t="n">
+        <v>0.0001249857017676659</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="n">
+        <v>10.08287054332674</v>
+      </c>
+      <c r="B854" t="n">
+        <v>0.0001227268984032026</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="n">
+        <v>10.09747706018278</v>
+      </c>
+      <c r="B855" t="n">
+        <v>0.0001205025601223042</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="n">
+        <v>10.11208357703883</v>
+      </c>
+      <c r="B856" t="n">
+        <v>0.0001183122948210658</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>10.12669009389487</v>
+      </c>
+      <c r="B857" t="n">
+        <v>0.0001161557121689416</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>10.14129661075091</v>
+      </c>
+      <c r="B858" t="n">
+        <v>0.0001140324236585943</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="n">
+        <v>10.15590312760696</v>
+      </c>
+      <c r="B859" t="n">
+        <v>0.0001119420426534123</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="n">
+        <v>10.170509644463</v>
+      </c>
+      <c r="B860" t="n">
+        <v>0.0001098841844339171</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="n">
+        <v>10.18511616131904</v>
+      </c>
+      <c r="B861" t="n">
+        <v>0.0001078584662440596</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="n">
+        <v>10.19972267817509</v>
+      </c>
+      <c r="B862" t="n">
+        <v>0.0001058645073339637</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>10.21432919503113</v>
+      </c>
+      <c r="B863" t="n">
+        <v>0.0001039019290036691</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>10.22893571188718</v>
+      </c>
+      <c r="B864" t="n">
+        <v>0.0001019703546430994</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>10.24354222874322</v>
+      </c>
+      <c r="B865" t="n">
+        <v>0.0001000694097732513</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>10.25814874559926</v>
+      </c>
+      <c r="B866" t="n">
+        <v>9.819872208416403e-05</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>10.27275526245531</v>
+      </c>
+      <c r="B867" t="n">
+        <v>9.635792147288935e-05</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>10.28736177931135</v>
+      </c>
+      <c r="B868" t="n">
+        <v>9.454664007857438e-05</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>10.3019682961674</v>
+      </c>
+      <c r="B869" t="n">
+        <v>9.276451231854388e-05</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>10.31657481302344</v>
+      </c>
+      <c r="B870" t="n">
+        <v>9.101117492116284e-05</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="n">
+        <v>10.33118132987948</v>
+      </c>
+      <c r="B871" t="n">
+        <v>8.928626695814401e-05</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="n">
+        <v>10.34578784673553</v>
+      </c>
+      <c r="B872" t="n">
+        <v>8.758942987630025e-05</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="n">
+        <v>10.36039436359157</v>
+      </c>
+      <c r="B873" t="n">
+        <v>8.59203075267434e-05</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="n">
+        <v>10.37500088044761</v>
+      </c>
+      <c r="B874" t="n">
+        <v>8.427854619419417e-05</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>10.38960739730366</v>
+      </c>
+      <c r="B875" t="n">
+        <v>8.266379462407158e-05</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>10.4042139141597</v>
+      </c>
+      <c r="B876" t="n">
+        <v>8.107570404924935e-05</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="n">
+        <v>10.41882043101574</v>
+      </c>
+      <c r="B877" t="n">
+        <v>7.951392821525793e-05</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="n">
+        <v>10.43342694787179</v>
+      </c>
+      <c r="B878" t="n">
+        <v>7.797812340415433e-05</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="n">
+        <v>10.44803346472783</v>
+      </c>
+      <c r="B879" t="n">
+        <v>7.646794845728166e-05</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>10.46263998158387</v>
+      </c>
+      <c r="B880" t="n">
+        <v>7.498306479802874e-05</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>10.47724649843992</v>
+      </c>
+      <c r="B881" t="n">
+        <v>7.352313645170305e-05</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>10.49185301529596</v>
+      </c>
+      <c r="B882" t="n">
+        <v>7.208783006507069e-05</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>10.50645953215201</v>
+      </c>
+      <c r="B883" t="n">
+        <v>7.067681492622935e-05</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="n">
+        <v>10.52106604900805</v>
+      </c>
+      <c r="B884" t="n">
+        <v>6.92897629804845e-05</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="n">
+        <v>10.5356725658641</v>
+      </c>
+      <c r="B885" t="n">
+        <v>6.792634884833504e-05</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="n">
+        <v>10.55027908272014</v>
+      </c>
+      <c r="B886" t="n">
+        <v>6.658624983990613e-05</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>10.56488559957618</v>
+      </c>
+      <c r="B887" t="n">
+        <v>6.526914596982625e-05</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>10.57949211643223</v>
+      </c>
+      <c r="B888" t="n">
+        <v>6.397471997132698e-05</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>10.59409863328827</v>
+      </c>
+      <c r="B889" t="n">
+        <v>6.270265730723423e-05</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>10.60870515014431</v>
+      </c>
+      <c r="B890" t="n">
+        <v>6.145264618351298e-05</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="n">
+        <v>10.62331166700036</v>
+      </c>
+      <c r="B891" t="n">
+        <v>6.022437755792698e-05</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="n">
+        <v>10.6379181838564</v>
+      </c>
+      <c r="B892" t="n">
+        <v>5.901754515125202e-05</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="n">
+        <v>10.65252470071244</v>
+      </c>
+      <c r="B893" t="n">
+        <v>5.783184545504749e-05</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="n">
+        <v>10.66713121756849</v>
+      </c>
+      <c r="B894" t="n">
+        <v>5.666697774031615e-05</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="n">
+        <v>10.68173773442453</v>
+      </c>
+      <c r="B895" t="n">
+        <v>5.552264406338825e-05</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="n">
+        <v>10.69634425128057</v>
+      </c>
+      <c r="B896" t="n">
+        <v>5.439854927369314e-05</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="n">
+        <v>10.71095076813662</v>
+      </c>
+      <c r="B897" t="n">
+        <v>5.329440101697891e-05</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="n">
+        <v>10.72555728499266</v>
+      </c>
+      <c r="B898" t="n">
+        <v>5.220990974175166e-05</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="n">
+        <v>10.74016380184871</v>
+      </c>
+      <c r="B899" t="n">
+        <v>5.114478870127392e-05</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="n">
+        <v>10.75477031870475</v>
+      </c>
+      <c r="B900" t="n">
+        <v>5.009875395756147e-05</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="n">
+        <v>10.76937683556079</v>
+      </c>
+      <c r="B901" t="n">
+        <v>4.907152438227147e-05</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="n">
+        <v>10.78398335241684</v>
+      </c>
+      <c r="B902" t="n">
+        <v>4.806282165936704e-05</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="n">
+        <v>10.79858986927288</v>
+      </c>
+      <c r="B903" t="n">
+        <v>4.707237028389599e-05</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="n">
+        <v>10.81319638612893</v>
+      </c>
+      <c r="B904" t="n">
+        <v>4.609989756299004e-05</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="n">
+        <v>10.82780290298497</v>
+      </c>
+      <c r="B905" t="n">
+        <v>4.514513361464356e-05</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="n">
+        <v>10.84240941984101</v>
+      </c>
+      <c r="B906" t="n">
+        <v>4.420781136560414e-05</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="n">
+        <v>10.85701593669706</v>
+      </c>
+      <c r="B907" t="n">
+        <v>4.328766654915217e-05</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="n">
+        <v>10.8716224535531</v>
+      </c>
+      <c r="B908" t="n">
+        <v>4.238443770221423e-05</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="n">
+        <v>10.88622897040914</v>
+      </c>
+      <c r="B909" t="n">
+        <v>4.14978661613663e-05</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="n">
+        <v>10.90083548726519</v>
+      </c>
+      <c r="B910" t="n">
+        <v>4.062769605850391e-05</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="n">
+        <v>10.91544200412123</v>
+      </c>
+      <c r="B911" t="n">
+        <v>3.977367431562406e-05</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="n">
+        <v>10.93004852097727</v>
+      </c>
+      <c r="B912" t="n">
+        <v>3.893555063994025e-05</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="n">
+        <v>10.94465503783332</v>
+      </c>
+      <c r="B913" t="n">
+        <v>3.811307751611093e-05</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="n">
+        <v>10.95926155468936</v>
+      </c>
+      <c r="B914" t="n">
+        <v>3.730601020102142e-05</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="n">
+        <v>10.97386807154541</v>
+      </c>
+      <c r="B915" t="n">
+        <v>3.651410671490218e-05</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="n">
+        <v>10.98847458840145</v>
+      </c>
+      <c r="B916" t="n">
+        <v>3.573712783477845e-05</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="n">
+        <v>11.00308110525749</v>
+      </c>
+      <c r="B917" t="n">
+        <v>3.497483708436722e-05</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="n">
+        <v>11.01768762211354</v>
+      </c>
+      <c r="B918" t="n">
+        <v>3.422700072608365e-05</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="n">
+        <v>11.03229413896958</v>
+      </c>
+      <c r="B919" t="n">
+        <v>3.349338775093802e-05</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="n">
+        <v>11.04690065582563</v>
+      </c>
+      <c r="B920" t="n">
+        <v>3.277376986876579e-05</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="n">
+        <v>11.06150717268167</v>
+      </c>
+      <c r="B921" t="n">
+        <v>3.206792149712534e-05</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="n">
+        <v>11.07611368953771</v>
+      </c>
+      <c r="B922" t="n">
+        <v>3.13756197504178e-05</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="n">
+        <v>11.09072020639376</v>
+      </c>
+      <c r="B923" t="n">
+        <v>3.069664442900688e-05</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="n">
+        <v>11.1053267232498</v>
+      </c>
+      <c r="B924" t="n">
+        <v>3.003077800545206e-05</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="n">
+        <v>11.11993324010584</v>
+      </c>
+      <c r="B925" t="n">
+        <v>2.937780561440562e-05</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="n">
+        <v>11.13453975696189</v>
+      </c>
+      <c r="B926" t="n">
+        <v>2.873751503751354e-05</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="n">
+        <v>11.14914627381793</v>
+      </c>
+      <c r="B927" t="n">
+        <v>2.810969669175822e-05</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="n">
+        <v>11.16375279067397</v>
+      </c>
+      <c r="B928" t="n">
+        <v>2.749414361480351e-05</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="n">
+        <v>11.17835930753002</v>
+      </c>
+      <c r="B929" t="n">
+        <v>2.689065145178304e-05</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="n">
+        <v>11.19296582438606</v>
+      </c>
+      <c r="B930" t="n">
+        <v>2.629901843942406e-05</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="n">
+        <v>11.20757234124211</v>
+      </c>
+      <c r="B931" t="n">
+        <v>2.57190453930578e-05</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="n">
+        <v>11.22217885809815</v>
+      </c>
+      <c r="B932" t="n">
+        <v>2.515053569041026e-05</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="n">
+        <v>11.23678537495419</v>
+      </c>
+      <c r="B933" t="n">
+        <v>2.459329525572596e-05</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="n">
+        <v>11.25139189181024</v>
+      </c>
+      <c r="B934" t="n">
+        <v>2.404713254533508e-05</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="n">
+        <v>11.26599840866628</v>
+      </c>
+      <c r="B935" t="n">
+        <v>2.351185853022297e-05</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="n">
+        <v>11.28060492552232</v>
+      </c>
+      <c r="B936" t="n">
+        <v>2.298728668015393e-05</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="n">
+        <v>11.29521144237837</v>
+      </c>
+      <c r="B937" t="n">
+        <v>2.247323294712888e-05</v>
+      </c>
+    </row>
+    <row r="938">
+      <c r="A938" t="n">
+        <v>11.30981795923441</v>
+      </c>
+      <c r="B938" t="n">
+        <v>2.1969515748399e-05</v>
+      </c>
+    </row>
+    <row r="939">
+      <c r="A939" t="n">
+        <v>11.32442447609046</v>
+      </c>
+      <c r="B939" t="n">
+        <v>2.147595594848006e-05</v>
+      </c>
+    </row>
+    <row r="940">
+      <c r="A940" t="n">
+        <v>11.3390309929465</v>
+      </c>
+      <c r="B940" t="n">
+        <v>2.099237684272115e-05</v>
+      </c>
+    </row>
+    <row r="941">
+      <c r="A941" t="n">
+        <v>11.35363750980254</v>
+      </c>
+      <c r="B941" t="n">
+        <v>2.051860413909701e-05</v>
+      </c>
+    </row>
+    <row r="942">
+      <c r="A942" t="n">
+        <v>11.36824402665859</v>
+      </c>
+      <c r="B942" t="n">
+        <v>2.005446593988935e-05</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943" t="n">
+        <v>11.38285054351463</v>
+      </c>
+      <c r="B943" t="n">
+        <v>1.959979272403434e-05</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944" t="n">
+        <v>11.39745706037067</v>
+      </c>
+      <c r="B944" t="n">
+        <v>1.915441732869283e-05</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945" t="n">
+        <v>11.41206357722672</v>
+      </c>
+      <c r="B945" t="n">
+        <v>1.871817493037664e-05</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946" t="n">
+        <v>11.42667009408276</v>
+      </c>
+      <c r="B946" t="n">
+        <v>1.829090302618575e-05</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947" t="n">
+        <v>11.44127661093881</v>
+      </c>
+      <c r="B947" t="n">
+        <v>1.787244141515654e-05</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948" t="n">
+        <v>11.45588312779485</v>
+      </c>
+      <c r="B948" t="n">
+        <v>1.746263217916599e-05</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949" t="n">
+        <v>11.47048964465089</v>
+      </c>
+      <c r="B949" t="n">
+        <v>1.706131966272562e-05</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950" t="n">
+        <v>11.48509616150694</v>
+      </c>
+      <c r="B950" t="n">
+        <v>1.666835045499582e-05</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951" t="n">
+        <v>11.49970267836298</v>
+      </c>
+      <c r="B951" t="n">
+        <v>1.628357336913577e-05</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952" t="n">
+        <v>11.51430919521902</v>
+      </c>
+      <c r="B952" t="n">
+        <v>1.590683942309656e-05</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953" t="n">
+        <v>11.52891571207507</v>
+      </c>
+      <c r="B953" t="n">
+        <v>1.553800181941511e-05</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954" t="n">
+        <v>11.54352222893111</v>
+      </c>
+      <c r="B954" t="n">
+        <v>1.517691592589632e-05</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955" t="n">
+        <v>11.55812874578716</v>
+      </c>
+      <c r="B955" t="n">
+        <v>1.482343925496288e-05</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956" t="n">
+        <v>11.5727352626432</v>
+      </c>
+      <c r="B956" t="n">
+        <v>1.447743144356028e-05</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957" t="n">
+        <v>11.58734177949924</v>
+      </c>
+      <c r="B957" t="n">
+        <v>1.413875423383892e-05</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958" t="n">
+        <v>11.60194829635529</v>
+      </c>
+      <c r="B958" t="n">
+        <v>1.380727145128269e-05</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959" t="n">
+        <v>11.61655481321133</v>
+      </c>
+      <c r="B959" t="n">
+        <v>1.348284898616825e-05</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960" t="n">
+        <v>11.63116133006737</v>
+      </c>
+      <c r="B960" t="n">
+        <v>1.316535477147163e-05</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961" t="n">
+        <v>11.64576784692342</v>
+      </c>
+      <c r="B961" t="n">
+        <v>1.28546587635503e-05</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962" t="n">
+        <v>11.66037436377946</v>
+      </c>
+      <c r="B962" t="n">
+        <v>1.255063292093794e-05</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963" t="n">
+        <v>11.67498088063551</v>
+      </c>
+      <c r="B963" t="n">
+        <v>1.225315118447146e-05</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964" t="n">
+        <v>11.68958739749155</v>
+      </c>
+      <c r="B964" t="n">
+        <v>1.196208945586363e-05</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965" t="n">
+        <v>11.70419391434759</v>
+      </c>
+      <c r="B965" t="n">
+        <v>1.167732557771917e-05</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966" t="n">
+        <v>11.71880043120364</v>
+      </c>
+      <c r="B966" t="n">
+        <v>1.139873931288449e-05</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967" t="n">
+        <v>11.73340694805968</v>
+      </c>
+      <c r="B967" t="n">
+        <v>1.112621232302047e-05</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968" t="n">
+        <v>11.74801346491572</v>
+      </c>
+      <c r="B968" t="n">
+        <v>1.085962814939556e-05</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969" t="n">
+        <v>11.76261998177177</v>
+      </c>
+      <c r="B969" t="n">
+        <v>1.059887219068134e-05</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970" t="n">
+        <v>11.77722649862781</v>
+      </c>
+      <c r="B970" t="n">
+        <v>1.034383168374564e-05</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971" t="n">
+        <v>11.79183301548385</v>
+      </c>
+      <c r="B971" t="n">
+        <v>1.00943956814481e-05</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972" t="n">
+        <v>11.8064395323399</v>
+      </c>
+      <c r="B972" t="n">
+        <v>9.850455033988403e-06</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973" t="n">
+        <v>11.82104604919594</v>
+      </c>
+      <c r="B973" t="n">
+        <v>9.611902366590819e-06</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974" t="n">
+        <v>11.83565256605199</v>
+      </c>
+      <c r="B974" t="n">
+        <v>9.378632059964254e-06</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975" t="n">
+        <v>11.85025908290803</v>
+      </c>
+      <c r="B975" t="n">
+        <v>9.150540229430071e-06</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976" t="n">
+        <v>11.86486559976407</v>
+      </c>
+      <c r="B976" t="n">
+        <v>8.927524704605005e-06</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977" t="n">
+        <v>11.87947211662012</v>
+      </c>
+      <c r="B977" t="n">
+        <v>8.709485009084084e-06</v>
+      </c>
+    </row>
+    <row r="978">
+      <c r="A978" t="n">
+        <v>11.89407863347616</v>
+      </c>
+      <c r="B978" t="n">
+        <v>8.496322340012519e-06</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979" t="n">
+        <v>11.90868515033221</v>
+      </c>
+      <c r="B979" t="n">
+        <v>8.287939547657608e-06</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980" t="n">
+        <v>11.92329166718825</v>
+      </c>
+      <c r="B980" t="n">
+        <v>8.084241115202673e-06</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981" t="n">
+        <v>11.93789818404429</v>
+      </c>
+      <c r="B981" t="n">
+        <v>7.885133139318157e-06</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982" t="n">
+        <v>11.95250470090034</v>
+      </c>
+      <c r="B982" t="n">
+        <v>7.690523308734321e-06</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983" t="n">
+        <v>11.96711121775638</v>
+      </c>
+      <c r="B983" t="n">
+        <v>7.500320885589495e-06</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984" t="n">
+        <v>11.98171773461242</v>
+      </c>
+      <c r="B984" t="n">
+        <v>7.314436684668912e-06</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985" t="n">
+        <v>11.99632425146847</v>
+      </c>
+      <c r="B985" t="n">
+        <v>7.132783054086822e-06</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986" t="n">
+        <v>12.01093076832451</v>
+      </c>
+      <c r="B986" t="n">
+        <v>6.95527385485839e-06</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987" t="n">
+        <v>12.02553728518055</v>
+      </c>
+      <c r="B987" t="n">
+        <v>6.781824442469997e-06</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" t="n">
+        <v>12.0401438020366</v>
+      </c>
+      <c r="B988" t="n">
+        <v>6.61235164589602e-06</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989" t="n">
+        <v>12.05475031889264</v>
+      </c>
+      <c r="B989" t="n">
+        <v>6.446773749280155e-06</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990" t="n">
+        <v>12.06935683574869</v>
+      </c>
+      <c r="B990" t="n">
+        <v>6.285010472395491e-06</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991" t="n">
+        <v>12.08396335260473</v>
+      </c>
+      <c r="B991" t="n">
+        <v>6.126982950660498e-06</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" t="n">
+        <v>12.09856986946077</v>
+      </c>
+      <c r="B992" t="n">
+        <v>5.972613716931363e-06</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993" t="n">
+        <v>12.11317638631682</v>
+      </c>
+      <c r="B993" t="n">
+        <v>5.821826682406162e-06</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994" t="n">
+        <v>12.12778290317286</v>
+      </c>
+      <c r="B994" t="n">
+        <v>5.674547117195949e-06</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995" t="n">
+        <v>12.14238942002891</v>
+      </c>
+      <c r="B995" t="n">
+        <v>5.53070163222813e-06</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996" t="n">
+        <v>12.15699593688495</v>
+      </c>
+      <c r="B996" t="n">
+        <v>5.390218160039595e-06</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997" t="n">
+        <v>12.17160245374099</v>
+      </c>
+      <c r="B997" t="n">
+        <v>5.253025936791111e-06</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="n">
+        <v>12.18620897059704</v>
+      </c>
+      <c r="B998" t="n">
+        <v>5.119055483504553e-06</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="n">
+        <v>12.20081548745308</v>
+      </c>
+      <c r="B999" t="n">
+        <v>4.98823858818831e-06</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="n">
+        <v>12.21542200430912</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>4.860508287407583e-06</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="n">
+        <v>12.23002852116517</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>4.735798848520822e-06</v>
       </c>
     </row>
   </sheetData>
